--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema3f-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema3f-Nrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.74268466666667</v>
+        <v>60.84105066666667</v>
       </c>
       <c r="H2">
-        <v>152.228054</v>
+        <v>182.523152</v>
       </c>
       <c r="I2">
-        <v>0.939595280901226</v>
+        <v>0.9509145817383112</v>
       </c>
       <c r="J2">
-        <v>0.9395952809012262</v>
+        <v>0.9509145817383113</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N2">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O2">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P2">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q2">
-        <v>5165.166053473964</v>
+        <v>5286.807961389373</v>
       </c>
       <c r="R2">
-        <v>46486.49448126568</v>
+        <v>47581.27165250436</v>
       </c>
       <c r="S2">
-        <v>0.2635992051797698</v>
+        <v>0.304083138793982</v>
       </c>
       <c r="T2">
-        <v>0.2635992051797699</v>
+        <v>0.304083138793982</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.74268466666667</v>
+        <v>60.84105066666667</v>
       </c>
       <c r="H3">
-        <v>152.228054</v>
+        <v>182.523152</v>
       </c>
       <c r="I3">
-        <v>0.939595280901226</v>
+        <v>0.9509145817383112</v>
       </c>
       <c r="J3">
-        <v>0.9395952809012262</v>
+        <v>0.9509145817383113</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>163.038635</v>
       </c>
       <c r="O3">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P3">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q3">
-        <v>2757.672681429588</v>
+        <v>3306.480617553058</v>
       </c>
       <c r="R3">
-        <v>24819.05413286629</v>
+        <v>29758.32555797752</v>
       </c>
       <c r="S3">
-        <v>0.1407351321225956</v>
+        <v>0.1901799747390043</v>
       </c>
       <c r="T3">
-        <v>0.1407351321225956</v>
+        <v>0.1901799747390043</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.74268466666667</v>
+        <v>60.84105066666667</v>
       </c>
       <c r="H4">
-        <v>152.228054</v>
+        <v>182.523152</v>
       </c>
       <c r="I4">
-        <v>0.939595280901226</v>
+        <v>0.9509145817383112</v>
       </c>
       <c r="J4">
-        <v>0.9395952809012262</v>
+        <v>0.9509145817383113</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N4">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O4">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P4">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q4">
-        <v>6203.510514504199</v>
+        <v>3706.802846654495</v>
       </c>
       <c r="R4">
-        <v>55831.59463053779</v>
+        <v>33361.22561989045</v>
       </c>
       <c r="S4">
-        <v>0.3165901006895663</v>
+        <v>0.2132054450876904</v>
       </c>
       <c r="T4">
-        <v>0.3165901006895663</v>
+        <v>0.2132054450876904</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.74268466666667</v>
+        <v>60.84105066666667</v>
       </c>
       <c r="H5">
-        <v>152.228054</v>
+        <v>182.523152</v>
       </c>
       <c r="I5">
-        <v>0.939595280901226</v>
+        <v>0.9509145817383112</v>
       </c>
       <c r="J5">
-        <v>0.9395952809012262</v>
+        <v>0.9509145817383113</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N5">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O5">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P5">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q5">
-        <v>472.1457963024978</v>
+        <v>475.1484267581955</v>
       </c>
       <c r="R5">
-        <v>4249.31216672248</v>
+        <v>4276.33584082376</v>
       </c>
       <c r="S5">
-        <v>0.02409549961140185</v>
+        <v>0.0273292743101045</v>
       </c>
       <c r="T5">
-        <v>0.02409549961140186</v>
+        <v>0.02732927431010451</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>50.74268466666667</v>
+        <v>60.84105066666667</v>
       </c>
       <c r="H6">
-        <v>152.228054</v>
+        <v>182.523152</v>
       </c>
       <c r="I6">
-        <v>0.939595280901226</v>
+        <v>0.9509145817383112</v>
       </c>
       <c r="J6">
-        <v>0.9395952809012262</v>
+        <v>0.9509145817383113</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N6">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O6">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P6">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q6">
-        <v>3812.659288406864</v>
+        <v>3757.418950346121</v>
       </c>
       <c r="R6">
-        <v>34313.93359566177</v>
+        <v>33816.77055311509</v>
       </c>
       <c r="S6">
-        <v>0.1945753432978923</v>
+        <v>0.2161167488075302</v>
       </c>
       <c r="T6">
-        <v>0.1945753432978924</v>
+        <v>0.2161167488075302</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>6.272689</v>
       </c>
       <c r="I7">
-        <v>0.03871683850705357</v>
+        <v>0.0326796429463891</v>
       </c>
       <c r="J7">
-        <v>0.03871683850705358</v>
+        <v>0.0326796429463891</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N7">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O7">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P7">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q7">
-        <v>212.8351472377065</v>
+        <v>181.6892913646349</v>
       </c>
       <c r="R7">
-        <v>1915.516325139359</v>
+        <v>1635.203622281714</v>
       </c>
       <c r="S7">
-        <v>0.01086183388207725</v>
+        <v>0.01045028501260204</v>
       </c>
       <c r="T7">
-        <v>0.01086183388207725</v>
+        <v>0.01045028501260204</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>6.272689</v>
       </c>
       <c r="I8">
-        <v>0.03871683850705357</v>
+        <v>0.0326796429463891</v>
       </c>
       <c r="J8">
-        <v>0.03871683850705358</v>
+        <v>0.0326796429463891</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>163.038635</v>
       </c>
       <c r="O8">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P8">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q8">
         <v>113.6322947043906</v>
@@ -948,10 +948,10 @@
         <v>1022.690652339515</v>
       </c>
       <c r="S8">
-        <v>0.005799113185661245</v>
+        <v>0.006535827496369503</v>
       </c>
       <c r="T8">
-        <v>0.005799113185661247</v>
+        <v>0.006535827496369502</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>6.272689</v>
       </c>
       <c r="I9">
-        <v>0.03871683850705357</v>
+        <v>0.0326796429463891</v>
       </c>
       <c r="J9">
-        <v>0.03871683850705358</v>
+        <v>0.0326796429463891</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N9">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O9">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P9">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q9">
-        <v>255.6210313620302</v>
+        <v>127.3899841559735</v>
       </c>
       <c r="R9">
-        <v>2300.589282258272</v>
+        <v>1146.509857403761</v>
       </c>
       <c r="S9">
-        <v>0.01304536969318635</v>
+        <v>0.007327133218374727</v>
       </c>
       <c r="T9">
-        <v>0.01304536969318635</v>
+        <v>0.007327133218374726</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>6.272689</v>
       </c>
       <c r="I10">
-        <v>0.03871683850705357</v>
+        <v>0.0326796429463891</v>
       </c>
       <c r="J10">
-        <v>0.03871683850705358</v>
+        <v>0.0326796429463891</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N10">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O10">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P10">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q10">
-        <v>19.45517705207556</v>
+        <v>16.32920688271611</v>
       </c>
       <c r="R10">
-        <v>175.09659346868</v>
+        <v>146.962861944445</v>
       </c>
       <c r="S10">
-        <v>0.0009928759607079039</v>
+        <v>0.0009392125681840904</v>
       </c>
       <c r="T10">
-        <v>0.0009928759607079041</v>
+        <v>0.0009392125681840904</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>6.272689</v>
       </c>
       <c r="I11">
-        <v>0.03871683850705357</v>
+        <v>0.0326796429463891</v>
       </c>
       <c r="J11">
-        <v>0.03871683850705358</v>
+        <v>0.0326796429463891</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N11">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O11">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P11">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q11">
-        <v>157.1039328870194</v>
+        <v>129.1294844515268</v>
       </c>
       <c r="R11">
-        <v>1413.935395983174</v>
+        <v>1162.165360063741</v>
       </c>
       <c r="S11">
-        <v>0.008017645785420819</v>
+        <v>0.007427184650858744</v>
       </c>
       <c r="T11">
-        <v>0.008017645785420819</v>
+        <v>0.007427184650858744</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.06669499999999999</v>
+        <v>0.316267</v>
       </c>
       <c r="H12">
-        <v>0.200085</v>
+        <v>0.948801</v>
       </c>
       <c r="I12">
-        <v>0.001234982099811391</v>
+        <v>0.004943091855371265</v>
       </c>
       <c r="J12">
-        <v>0.001234982099811391</v>
+        <v>0.004943091855371265</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N12">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O12">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P12">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q12">
-        <v>6.788973665848332</v>
+        <v>27.48215021278067</v>
       </c>
       <c r="R12">
-        <v>61.100762992635</v>
+        <v>247.339351915026</v>
       </c>
       <c r="S12">
-        <v>0.0003464686408485142</v>
+        <v>0.001580700218079014</v>
       </c>
       <c r="T12">
-        <v>0.0003464686408485144</v>
+        <v>0.001580700218079013</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.06669499999999999</v>
+        <v>0.316267</v>
       </c>
       <c r="H13">
-        <v>0.200085</v>
+        <v>0.948801</v>
       </c>
       <c r="I13">
-        <v>0.001234982099811391</v>
+        <v>0.004943091855371265</v>
       </c>
       <c r="J13">
-        <v>0.001234982099811391</v>
+        <v>0.004943091855371265</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>163.038635</v>
       </c>
       <c r="O13">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P13">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q13">
-        <v>3.624620587108333</v>
+        <v>17.18791332518167</v>
       </c>
       <c r="R13">
-        <v>32.62158528397499</v>
+        <v>154.691219926635</v>
       </c>
       <c r="S13">
-        <v>0.0001849789718178328</v>
+        <v>0.0009886030798566421</v>
       </c>
       <c r="T13">
-        <v>0.0001849789718178329</v>
+        <v>0.0009886030798566421</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.06669499999999999</v>
+        <v>0.316267</v>
       </c>
       <c r="H14">
-        <v>0.200085</v>
+        <v>0.948801</v>
       </c>
       <c r="I14">
-        <v>0.001234982099811391</v>
+        <v>0.004943091855371265</v>
       </c>
       <c r="J14">
-        <v>0.001234982099811391</v>
+        <v>0.004943091855371265</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N14">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O14">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P14">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q14">
-        <v>8.153749382453331</v>
+        <v>19.26888840769433</v>
       </c>
       <c r="R14">
-        <v>73.38374444207999</v>
+        <v>173.419995669249</v>
       </c>
       <c r="S14">
-        <v>0.0004161186366901324</v>
+        <v>0.001108295234265107</v>
       </c>
       <c r="T14">
-        <v>0.0004161186366901325</v>
+        <v>0.001108295234265107</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.06669499999999999</v>
+        <v>0.316267</v>
       </c>
       <c r="H15">
-        <v>0.200085</v>
+        <v>0.948801</v>
       </c>
       <c r="I15">
-        <v>0.001234982099811391</v>
+        <v>0.004943091855371265</v>
       </c>
       <c r="J15">
-        <v>0.001234982099811391</v>
+        <v>0.004943091855371265</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N15">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O15">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P15">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q15">
-        <v>0.6205774111333332</v>
+        <v>2.469940374778333</v>
       </c>
       <c r="R15">
-        <v>5.5851967002</v>
+        <v>22.229463373005</v>
       </c>
       <c r="S15">
-        <v>3.16705621143087E-05</v>
+        <v>0.0001420644039431308</v>
       </c>
       <c r="T15">
-        <v>3.167056211430871E-05</v>
+        <v>0.0001420644039431308</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.06669499999999999</v>
+        <v>0.316267</v>
       </c>
       <c r="H16">
-        <v>0.200085</v>
+        <v>0.948801</v>
       </c>
       <c r="I16">
-        <v>0.001234982099811391</v>
+        <v>0.004943091855371265</v>
       </c>
       <c r="J16">
-        <v>0.001234982099811391</v>
+        <v>0.004943091855371265</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N16">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O16">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P16">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q16">
-        <v>5.01127035179</v>
+        <v>19.53200357567433</v>
       </c>
       <c r="R16">
-        <v>45.10143316611001</v>
+        <v>175.788032181069</v>
       </c>
       <c r="S16">
-        <v>0.0002557452883406023</v>
+        <v>0.001123428919227372</v>
       </c>
       <c r="T16">
-        <v>0.0002557452883406024</v>
+        <v>0.001123428919227372</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.9798133333333334</v>
+        <v>0.573554</v>
       </c>
       <c r="H17">
-        <v>2.93944</v>
+        <v>1.720662</v>
       </c>
       <c r="I17">
-        <v>0.01814306811339978</v>
+        <v>0.008964356401444383</v>
       </c>
       <c r="J17">
-        <v>0.01814306811339978</v>
+        <v>0.008964356401444383</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N17">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O17">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P17">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q17">
-        <v>99.73651574251556</v>
+        <v>49.83920922240134</v>
       </c>
       <c r="R17">
-        <v>897.6286416826401</v>
+        <v>448.552883001612</v>
       </c>
       <c r="S17">
-        <v>0.005089955677116011</v>
+        <v>0.002866618815368314</v>
       </c>
       <c r="T17">
-        <v>0.005089955677116012</v>
+        <v>0.002866618815368314</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.9798133333333334</v>
+        <v>0.573554</v>
       </c>
       <c r="H18">
-        <v>2.93944</v>
+        <v>1.720662</v>
       </c>
       <c r="I18">
-        <v>0.01814306811339978</v>
+        <v>0.008964356401444383</v>
       </c>
       <c r="J18">
-        <v>0.01814306811339978</v>
+        <v>0.008964356401444383</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>163.038635</v>
       </c>
       <c r="O18">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P18">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q18">
-        <v>53.24914280715556</v>
+        <v>31.17048708626334</v>
       </c>
       <c r="R18">
-        <v>479.2422852644</v>
+        <v>280.53438377637</v>
       </c>
       <c r="S18">
-        <v>0.002717517999451287</v>
+        <v>0.00179284354948223</v>
       </c>
       <c r="T18">
-        <v>0.002717517999451287</v>
+        <v>0.00179284354948223</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.9798133333333334</v>
+        <v>0.573554</v>
       </c>
       <c r="H19">
-        <v>2.93944</v>
+        <v>1.720662</v>
       </c>
       <c r="I19">
-        <v>0.01814306811339978</v>
+        <v>0.008964356401444383</v>
       </c>
       <c r="J19">
-        <v>0.01814306811339978</v>
+        <v>0.008964356401444383</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N19">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O19">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P19">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q19">
-        <v>119.7863762139022</v>
+        <v>34.94436037204867</v>
       </c>
       <c r="R19">
-        <v>1078.07738592512</v>
+        <v>314.499243348438</v>
       </c>
       <c r="S19">
-        <v>0.00611318072535394</v>
+        <v>0.002009906707919856</v>
       </c>
       <c r="T19">
-        <v>0.006113180725353941</v>
+        <v>0.002009906707919856</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.9798133333333334</v>
+        <v>0.573554</v>
       </c>
       <c r="H20">
-        <v>2.93944</v>
+        <v>1.720662</v>
       </c>
       <c r="I20">
-        <v>0.01814306811339978</v>
+        <v>0.008964356401444383</v>
       </c>
       <c r="J20">
-        <v>0.01814306811339978</v>
+        <v>0.008964356401444383</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N20">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O20">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P20">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q20">
-        <v>9.116875654755557</v>
+        <v>4.479266511256666</v>
       </c>
       <c r="R20">
-        <v>82.05188089280001</v>
+        <v>40.31339860130999</v>
       </c>
       <c r="S20">
-        <v>0.0004652708453971242</v>
+        <v>0.0002576355014566756</v>
       </c>
       <c r="T20">
-        <v>0.0004652708453971242</v>
+        <v>0.0002576355014566756</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.9798133333333334</v>
+        <v>0.573554</v>
       </c>
       <c r="H21">
-        <v>2.93944</v>
+        <v>1.720662</v>
       </c>
       <c r="I21">
-        <v>0.01814306811339978</v>
+        <v>0.008964356401444383</v>
       </c>
       <c r="J21">
-        <v>0.01814306811339978</v>
+        <v>0.008964356401444383</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N21">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O21">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P21">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q21">
-        <v>73.62035396389336</v>
+        <v>35.42152288680867</v>
       </c>
       <c r="R21">
-        <v>662.5831856750402</v>
+        <v>318.793705981278</v>
       </c>
       <c r="S21">
-        <v>0.003757142866081417</v>
+        <v>0.002037351827217308</v>
       </c>
       <c r="T21">
-        <v>0.003757142866081417</v>
+        <v>0.002037351827217308</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.124742</v>
+        <v>0.159847</v>
       </c>
       <c r="H22">
-        <v>0.374226</v>
+        <v>0.479541</v>
       </c>
       <c r="I22">
-        <v>0.002309830378509221</v>
+        <v>0.002498327058483909</v>
       </c>
       <c r="J22">
-        <v>0.002309830378509222</v>
+        <v>0.002498327058483909</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N22">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O22">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P22">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q22">
-        <v>12.69765579166733</v>
+        <v>13.88997038914067</v>
       </c>
       <c r="R22">
-        <v>114.278902125006</v>
+        <v>125.009733502266</v>
       </c>
       <c r="S22">
-        <v>0.0006480124626542526</v>
+        <v>0.0007989141698605169</v>
       </c>
       <c r="T22">
-        <v>0.0006480124626542527</v>
+        <v>0.0007989141698605168</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.124742</v>
+        <v>0.159847</v>
       </c>
       <c r="H23">
-        <v>0.374226</v>
+        <v>0.479541</v>
       </c>
       <c r="I23">
-        <v>0.002309830378509221</v>
+        <v>0.002498327058483909</v>
       </c>
       <c r="J23">
-        <v>0.002309830378509222</v>
+        <v>0.002498327058483909</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>163.038635</v>
       </c>
       <c r="O23">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P23">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q23">
-        <v>6.779255135723334</v>
+        <v>8.687078896281667</v>
       </c>
       <c r="R23">
-        <v>61.01329622151</v>
+        <v>78.183710066535</v>
       </c>
       <c r="S23">
-        <v>0.0003459726651548108</v>
+        <v>0.0004996576832418326</v>
       </c>
       <c r="T23">
-        <v>0.0003459726651548109</v>
+        <v>0.0004996576832418325</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.124742</v>
+        <v>0.159847</v>
       </c>
       <c r="H24">
-        <v>0.374226</v>
+        <v>0.479541</v>
       </c>
       <c r="I24">
-        <v>0.002309830378509221</v>
+        <v>0.002498327058483909</v>
       </c>
       <c r="J24">
-        <v>0.002309830378509222</v>
+        <v>0.002498327058483909</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N24">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O24">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P24">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q24">
-        <v>15.25024372840533</v>
+        <v>9.738840932834334</v>
       </c>
       <c r="R24">
-        <v>137.252193555648</v>
+        <v>87.64956839550901</v>
       </c>
       <c r="S24">
-        <v>0.0007782812951195818</v>
+        <v>0.0005601522394419099</v>
       </c>
       <c r="T24">
-        <v>0.0007782812951195819</v>
+        <v>0.0005601522394419098</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.124742</v>
+        <v>0.159847</v>
       </c>
       <c r="H25">
-        <v>0.374226</v>
+        <v>0.479541</v>
       </c>
       <c r="I25">
-        <v>0.002309830378509221</v>
+        <v>0.002498327058483909</v>
       </c>
       <c r="J25">
-        <v>0.002309830378509222</v>
+        <v>0.002498327058483909</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N25">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O25">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P25">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q25">
-        <v>1.160687719013333</v>
+        <v>1.248352054078333</v>
       </c>
       <c r="R25">
-        <v>10.44618947112</v>
+        <v>11.235168486705</v>
       </c>
       <c r="S25">
-        <v>5.923456419916181E-05</v>
+        <v>7.180189136741307E-05</v>
       </c>
       <c r="T25">
-        <v>5.923456419916181E-05</v>
+        <v>7.180189136741307E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.124742</v>
+        <v>0.159847</v>
       </c>
       <c r="H26">
-        <v>0.374226</v>
+        <v>0.479541</v>
       </c>
       <c r="I26">
-        <v>0.002309830378509221</v>
+        <v>0.002498327058483909</v>
       </c>
       <c r="J26">
-        <v>0.002309830378509222</v>
+        <v>0.002498327058483909</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N26">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O26">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P26">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q26">
-        <v>9.372754872524002</v>
+        <v>9.871824046014332</v>
       </c>
       <c r="R26">
-        <v>84.35479385271601</v>
+        <v>88.846416414129</v>
       </c>
       <c r="S26">
-        <v>0.0004783293913814142</v>
+        <v>0.0005678010745722373</v>
       </c>
       <c r="T26">
-        <v>0.0004783293913814142</v>
+        <v>0.0005678010745722373</v>
       </c>
     </row>
   </sheetData>
